--- a/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Thbs1-Sdc1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T31"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H2">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I2">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J2">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.96454710372563</v>
+        <v>3.152962</v>
       </c>
       <c r="N2">
-        <v>2.96454710372563</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O2">
-        <v>0.1255664292712438</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P2">
-        <v>0.1255664292712438</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q2">
-        <v>91.31845891479588</v>
+        <v>99.77700221768401</v>
       </c>
       <c r="R2">
-        <v>91.31845891479588</v>
+        <v>399.1080088707361</v>
       </c>
       <c r="S2">
-        <v>0.005177831797749849</v>
+        <v>0.004404882276562797</v>
       </c>
       <c r="T2">
-        <v>0.005177831797749849</v>
+        <v>0.002478468536567616</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H3">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I3">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J3">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>8.32523025636085</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N3">
-        <v>8.32523025636085</v>
+        <v>26.240334</v>
       </c>
       <c r="O3">
-        <v>0.3526236553429724</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P3">
-        <v>0.3526236553429724</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q3">
-        <v>256.4463206424617</v>
+        <v>276.796005756996</v>
       </c>
       <c r="R3">
-        <v>256.4463206424617</v>
+        <v>1660.776034541976</v>
       </c>
       <c r="S3">
-        <v>0.01454071749806269</v>
+        <v>0.01221978805619268</v>
       </c>
       <c r="T3">
-        <v>0.01454071749806269</v>
+        <v>0.01031345163817792</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H4">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I4">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J4">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.69796761232365</v>
+        <v>1.188721</v>
       </c>
       <c r="N4">
-        <v>0.69796761232365</v>
+        <v>3.566163</v>
       </c>
       <c r="O4">
-        <v>0.02956313317346694</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P4">
-        <v>0.02956313317346694</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q4">
-        <v>21.49985292854174</v>
+        <v>37.617649008522</v>
       </c>
       <c r="R4">
-        <v>21.49985292854174</v>
+        <v>225.705894051132</v>
       </c>
       <c r="S4">
-        <v>0.00121905936065147</v>
+        <v>0.00166071651503507</v>
       </c>
       <c r="T4">
-        <v>0.00121905936065147</v>
+        <v>0.001401638013996295</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,55 +720,55 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H5">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I5">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J5">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.716867645186256</v>
+        <v>0.700844</v>
       </c>
       <c r="N5">
-        <v>0.716867645186256</v>
+        <v>2.102532</v>
       </c>
       <c r="O5">
-        <v>0.03036366342535065</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P5">
-        <v>0.03036366342535065</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q5">
-        <v>22.08204029614442</v>
+        <v>22.178546186808</v>
       </c>
       <c r="R5">
-        <v>22.08204029614442</v>
+        <v>133.071277120848</v>
       </c>
       <c r="S5">
-        <v>0.00125206986367621</v>
+        <v>0.0009791222711327877</v>
       </c>
       <c r="T5">
-        <v>0.00125206986367621</v>
+        <v>0.0008263752321034286</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>30.8035108634413</v>
+        <v>31.645482</v>
       </c>
       <c r="H6">
-        <v>30.8035108634413</v>
+        <v>63.290964</v>
       </c>
       <c r="I6">
-        <v>0.04123579708207593</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J6">
-        <v>0.04123579708207593</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>10.9047798046547</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N6">
-        <v>10.9047798046547</v>
+        <v>2.258587</v>
       </c>
       <c r="O6">
-        <v>0.4618831187869663</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P6">
-        <v>0.4618831187869663</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q6">
-        <v>335.9055031761163</v>
+        <v>23.824691417978</v>
       </c>
       <c r="R6">
-        <v>335.9055031761163</v>
+        <v>142.948148507868</v>
       </c>
       <c r="S6">
-        <v>0.01904611856193572</v>
+        <v>0.001051795089440251</v>
       </c>
       <c r="T6">
-        <v>0.01904611856193572</v>
+        <v>0.0008877107964829009</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>75.72907579575249</v>
+        <v>31.645482</v>
       </c>
       <c r="H7">
-        <v>75.72907579575249</v>
+        <v>63.290964</v>
       </c>
       <c r="I7">
-        <v>0.101376392339517</v>
+        <v>0.03555980726701226</v>
       </c>
       <c r="J7">
-        <v>0.101376392339517</v>
+        <v>0.0244846141215985</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.96454710372563</v>
+        <v>10.911117</v>
       </c>
       <c r="N7">
-        <v>2.96454710372563</v>
+        <v>21.822234</v>
       </c>
       <c r="O7">
-        <v>0.1255664292712438</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P7">
-        <v>0.1255664292712438</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q7">
-        <v>224.5024123181168</v>
+        <v>345.287556623394</v>
       </c>
       <c r="R7">
-        <v>224.5024123181168</v>
+        <v>1381.150226493576</v>
       </c>
       <c r="S7">
-        <v>0.01272947159847381</v>
+        <v>0.01524350305864867</v>
       </c>
       <c r="T7">
-        <v>0.01272947159847381</v>
+        <v>0.008576969904270343</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H8">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I8">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J8">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>8.32523025636085</v>
+        <v>3.152962</v>
       </c>
       <c r="N8">
-        <v>8.32523025636085</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O8">
-        <v>0.3526236553429724</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P8">
-        <v>0.3526236553429724</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q8">
-        <v>630.4619931010428</v>
+        <v>262.4129672381407</v>
       </c>
       <c r="R8">
-        <v>630.4619931010428</v>
+        <v>1574.477803428844</v>
       </c>
       <c r="S8">
-        <v>0.03574771403224378</v>
+        <v>0.01158481616841635</v>
       </c>
       <c r="T8">
-        <v>0.03574771403224378</v>
+        <v>0.009777537936068741</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,55 +968,55 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H9">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I9">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J9">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.69796761232365</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N9">
-        <v>0.69796761232365</v>
+        <v>26.240334</v>
       </c>
       <c r="O9">
-        <v>0.02956313317346694</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P9">
-        <v>0.02956313317346694</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q9">
-        <v>52.85644221663809</v>
+        <v>727.9719732598395</v>
       </c>
       <c r="R9">
-        <v>52.85644221663809</v>
+        <v>6551.747759338555</v>
       </c>
       <c r="S9">
-        <v>0.002997003787378774</v>
+        <v>0.03213797540089237</v>
       </c>
       <c r="T9">
-        <v>0.002997003787378774</v>
+        <v>0.04068648165441169</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,55 +1030,55 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H10">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I10">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J10">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.716867645186256</v>
+        <v>1.188721</v>
       </c>
       <c r="N10">
-        <v>0.716867645186256</v>
+        <v>3.566163</v>
       </c>
       <c r="O10">
-        <v>0.03036366342535065</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P10">
-        <v>0.03036366342535065</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q10">
-        <v>54.28772423783258</v>
+        <v>98.93421006288366</v>
       </c>
       <c r="R10">
-        <v>54.28772423783258</v>
+        <v>890.407890565953</v>
       </c>
       <c r="S10">
-        <v>0.003078158656273389</v>
+        <v>0.004367675303583123</v>
       </c>
       <c r="T10">
-        <v>0.003078158656273389</v>
+        <v>0.005529450405476612</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>75.72907579575249</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H11">
-        <v>75.72907579575249</v>
+        <v>249.682331</v>
       </c>
       <c r="I11">
-        <v>0.101376392339517</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J11">
-        <v>0.101376392339517</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>10.9047798046547</v>
+        <v>0.700844</v>
       </c>
       <c r="N11">
-        <v>10.9047798046547</v>
+        <v>2.102532</v>
       </c>
       <c r="O11">
-        <v>0.4618831187869663</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P11">
-        <v>0.4618831187869663</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q11">
-        <v>825.8088963626868</v>
+        <v>58.32945452912134</v>
       </c>
       <c r="R11">
-        <v>825.8088963626868</v>
+        <v>524.965090762092</v>
       </c>
       <c r="S11">
-        <v>0.04682404426514721</v>
+        <v>0.002575086189664699</v>
       </c>
       <c r="T11">
-        <v>0.04682404426514721</v>
+        <v>0.003260043475277925</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1154,60 +1154,60 @@
         <v>27</v>
       </c>
       <c r="D12" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H12">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I12">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J12">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>2.96454710372563</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N12">
-        <v>2.96454710372563</v>
+        <v>2.258587</v>
       </c>
       <c r="O12">
-        <v>0.1255664292712438</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P12">
-        <v>0.1255664292712438</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q12">
-        <v>1173.291519728649</v>
+        <v>62.65880743625523</v>
       </c>
       <c r="R12">
-        <v>1173.291519728649</v>
+        <v>563.9292669262971</v>
       </c>
       <c r="S12">
-        <v>0.0665265950726302</v>
+        <v>0.002766215302243306</v>
       </c>
       <c r="T12">
-        <v>0.0665265950726302</v>
+        <v>0.003502011770901725</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1216,55 +1216,55 @@
         <v>27</v>
       </c>
       <c r="D13" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>395.774288171755</v>
+        <v>83.22744366666667</v>
       </c>
       <c r="H13">
-        <v>395.774288171755</v>
+        <v>249.682331</v>
       </c>
       <c r="I13">
-        <v>0.5298119525954027</v>
+        <v>0.09352209759714789</v>
       </c>
       <c r="J13">
-        <v>0.5298119525954027</v>
+        <v>0.09659160077758068</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>8.32523025636085</v>
+        <v>10.911117</v>
       </c>
       <c r="N13">
-        <v>8.32523025636085</v>
+        <v>21.822234</v>
       </c>
       <c r="O13">
-        <v>0.3526236553429724</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P13">
-        <v>0.3526236553429724</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q13">
-        <v>3294.912078577173</v>
+        <v>908.1043754579091</v>
       </c>
       <c r="R13">
-        <v>3294.912078577173</v>
+        <v>5448.626252747455</v>
       </c>
       <c r="S13">
-        <v>0.1868242273685885</v>
+        <v>0.04009032923234803</v>
       </c>
       <c r="T13">
-        <v>0.1868242273685885</v>
+        <v>0.03383607553544398</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,55 +1278,55 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H14">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I14">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J14">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>0.69796761232365</v>
+        <v>3.152962</v>
       </c>
       <c r="N14">
-        <v>0.69796761232365</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O14">
-        <v>0.02956313317346694</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P14">
-        <v>0.02956313317346694</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q14">
-        <v>276.237634934332</v>
+        <v>1653.970997095218</v>
       </c>
       <c r="R14">
-        <v>276.237634934332</v>
+        <v>9923.825982571308</v>
       </c>
       <c r="S14">
-        <v>0.01566290131147244</v>
+        <v>0.07301830451027889</v>
       </c>
       <c r="T14">
-        <v>0.01566290131147244</v>
+        <v>0.06162715333568101</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,55 +1340,55 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H15">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I15">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J15">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.716867645186256</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N15">
-        <v>0.716867645186256</v>
+        <v>26.240334</v>
       </c>
       <c r="O15">
-        <v>0.03036366342535065</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P15">
-        <v>0.03036366342535065</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q15">
-        <v>283.7177819869527</v>
+        <v>4588.357592013642</v>
       </c>
       <c r="R15">
-        <v>283.7177819869527</v>
+        <v>41295.21832812278</v>
       </c>
       <c r="S15">
-        <v>0.01608703180733464</v>
+        <v>0.2025634623848331</v>
       </c>
       <c r="T15">
-        <v>0.01608703180733464</v>
+        <v>0.2564441130272873</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,122 +1402,122 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>395.774288171755</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H16">
-        <v>395.774288171755</v>
+        <v>1573.730667</v>
       </c>
       <c r="I16">
-        <v>0.5298119525954027</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J16">
-        <v>0.5298119525954027</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M16">
-        <v>10.9047798046547</v>
+        <v>1.188721</v>
       </c>
       <c r="N16">
-        <v>10.9047798046547</v>
+        <v>3.566163</v>
       </c>
       <c r="O16">
-        <v>0.4618831187869663</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P16">
-        <v>0.4618831187869663</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q16">
-        <v>4315.831464856944</v>
+        <v>623.5755640689689</v>
       </c>
       <c r="R16">
-        <v>4315.831464856944</v>
+        <v>5612.180076620721</v>
       </c>
       <c r="S16">
-        <v>0.2447111970353769</v>
+        <v>0.02752915891652459</v>
       </c>
       <c r="T16">
-        <v>0.2447111970353769</v>
+        <v>0.03485174797873113</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>20</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H17">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I17">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J17">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17">
-        <v>2.96454710372563</v>
+        <v>0.700844</v>
       </c>
       <c r="N17">
-        <v>2.96454710372563</v>
+        <v>2.102532</v>
       </c>
       <c r="O17">
-        <v>0.1255664292712438</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P17">
-        <v>0.1255664292712438</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q17">
-        <v>526.2935197101239</v>
+        <v>367.6465651943159</v>
       </c>
       <c r="R17">
-        <v>526.2935197101239</v>
+        <v>3308.819086748844</v>
       </c>
       <c r="S17">
-        <v>0.02984127583501344</v>
+        <v>0.01623059225141371</v>
       </c>
       <c r="T17">
-        <v>0.02984127583501344</v>
+        <v>0.02054783120715949</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,60 +1526,60 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H18">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I18">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J18">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>8.32523025636085</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N18">
-        <v>8.32523025636085</v>
+        <v>2.258587</v>
       </c>
       <c r="O18">
-        <v>0.3526236553429724</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P18">
-        <v>0.3526236553429724</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q18">
-        <v>1477.971029204088</v>
+        <v>394.934180665281</v>
       </c>
       <c r="R18">
-        <v>1477.971029204088</v>
+        <v>3554.407625987529</v>
       </c>
       <c r="S18">
-        <v>0.08380217408515721</v>
+        <v>0.01743526598470023</v>
       </c>
       <c r="T18">
-        <v>0.08380217408515721</v>
+        <v>0.02207294083642234</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,55 +1588,55 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>177.529147386026</v>
+        <v>524.5768889999999</v>
       </c>
       <c r="H19">
-        <v>177.529147386026</v>
+        <v>1573.730667</v>
       </c>
       <c r="I19">
-        <v>0.2376532964121442</v>
+        <v>0.5894633891046084</v>
       </c>
       <c r="J19">
-        <v>0.2376532964121442</v>
+        <v>0.6088102578564109</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.69796761232365</v>
+        <v>10.911117</v>
       </c>
       <c r="N19">
-        <v>0.69796761232365</v>
+        <v>21.822234</v>
       </c>
       <c r="O19">
-        <v>0.02956313317346694</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P19">
-        <v>0.02956313317346694</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q19">
-        <v>123.9095951188779</v>
+        <v>5723.719811375013</v>
       </c>
       <c r="R19">
-        <v>123.9095951188779</v>
+        <v>34342.31886825008</v>
       </c>
       <c r="S19">
-        <v>0.007025776050945632</v>
+        <v>0.2526866050568579</v>
       </c>
       <c r="T19">
-        <v>0.007025776050945632</v>
+        <v>0.2132664714711296</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1650,55 +1650,55 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H20">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I20">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J20">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.716867645186256</v>
+        <v>3.152962</v>
       </c>
       <c r="N20">
-        <v>0.716867645186256</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O20">
-        <v>0.03036366342535065</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P20">
-        <v>0.03036366342535065</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q20">
-        <v>127.2649018385442</v>
+        <v>572.2037634741433</v>
       </c>
       <c r="R20">
-        <v>127.2649018385442</v>
+        <v>3433.22258084486</v>
       </c>
       <c r="S20">
-        <v>0.00721602470418344</v>
+        <v>0.02526123415504925</v>
       </c>
       <c r="T20">
-        <v>0.00721602470418344</v>
+        <v>0.02132037933724705</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>177.529147386026</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H21">
-        <v>177.529147386026</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I21">
-        <v>0.2376532964121442</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J21">
-        <v>0.2376532964121442</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>10.9047798046547</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N21">
-        <v>10.9047798046547</v>
+        <v>26.240334</v>
       </c>
       <c r="O21">
-        <v>0.4618831187869663</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P21">
-        <v>0.4618831187869663</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q21">
-        <v>1935.916261152704</v>
+        <v>1587.376977544556</v>
       </c>
       <c r="R21">
-        <v>1935.916261152704</v>
+        <v>14286.39279790101</v>
       </c>
       <c r="S21">
-        <v>0.1097680457368445</v>
+        <v>0.07007836033553001</v>
       </c>
       <c r="T21">
-        <v>0.1097680457368445</v>
+        <v>0.08871877853524099</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H22">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I22">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J22">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K22">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M22">
-        <v>2.96454710372563</v>
+        <v>1.188721</v>
       </c>
       <c r="N22">
-        <v>2.96454710372563</v>
+        <v>3.566163</v>
       </c>
       <c r="O22">
-        <v>0.1255664292712438</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P22">
-        <v>0.1255664292712438</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q22">
-        <v>45.41797006935933</v>
+        <v>215.7306779849383</v>
       </c>
       <c r="R22">
-        <v>45.41797006935933</v>
+        <v>1941.576101864445</v>
       </c>
       <c r="S22">
-        <v>0.002575236292958036</v>
+        <v>0.009523920531241511</v>
       </c>
       <c r="T22">
-        <v>0.002575236292958036</v>
+        <v>0.01205722554513104</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,122 +1836,122 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H23">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I23">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J23">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
       <c r="M23">
-        <v>8.32523025636085</v>
+        <v>0.700844</v>
       </c>
       <c r="N23">
-        <v>8.32523025636085</v>
+        <v>2.102532</v>
       </c>
       <c r="O23">
-        <v>0.3526236553429724</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P23">
-        <v>0.3526236553429724</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q23">
-        <v>127.5456403201467</v>
+        <v>127.1901070828866</v>
       </c>
       <c r="R23">
-        <v>127.5456403201467</v>
+        <v>1144.71096374598</v>
       </c>
       <c r="S23">
-        <v>0.007231942807206285</v>
+        <v>0.005615096024043847</v>
       </c>
       <c r="T23">
-        <v>0.007231942807206285</v>
+        <v>0.007108677460860723</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
         <v>24</v>
       </c>
-      <c r="B24" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" t="s">
-        <v>23</v>
-      </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H24">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I24">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J24">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>0.69796761232365</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N24">
-        <v>0.69796761232365</v>
+        <v>2.258587</v>
       </c>
       <c r="O24">
-        <v>0.02956313317346694</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P24">
-        <v>0.02956313317346694</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q24">
-        <v>10.69312478997521</v>
+        <v>136.6304638340894</v>
       </c>
       <c r="R24">
-        <v>10.69312478997521</v>
+        <v>1229.674174506805</v>
       </c>
       <c r="S24">
-        <v>0.000606308978631591</v>
+        <v>0.006031862004315331</v>
       </c>
       <c r="T24">
-        <v>0.000606308978631591</v>
+        <v>0.007636300660486042</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1960,55 +1960,55 @@
         <v>27</v>
       </c>
       <c r="D25" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>15.3203738986914</v>
+        <v>181.4813383333333</v>
       </c>
       <c r="H25">
-        <v>15.3203738986914</v>
+        <v>544.4440149999999</v>
       </c>
       <c r="I25">
-        <v>0.02050895536254447</v>
+        <v>0.2039293133121744</v>
       </c>
       <c r="J25">
-        <v>0.02050895536254447</v>
+        <v>0.210622508737405</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.716867645186256</v>
+        <v>10.911117</v>
       </c>
       <c r="N25">
-        <v>0.716867645186256</v>
+        <v>21.822234</v>
       </c>
       <c r="O25">
-        <v>0.03036366342535065</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P25">
-        <v>0.03036366342535065</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q25">
-        <v>10.98268036012789</v>
+        <v>1980.164115871585</v>
       </c>
       <c r="R25">
-        <v>10.98268036012789</v>
+        <v>11880.98469522951</v>
       </c>
       <c r="S25">
-        <v>0.0006227270178338404</v>
+        <v>0.08741884026199444</v>
       </c>
       <c r="T25">
-        <v>0.0006227270178338404</v>
+        <v>0.07378114719843909</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,60 +2022,60 @@
         <v>27</v>
       </c>
       <c r="D26" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
         <v>1</v>
       </c>
       <c r="G26">
-        <v>15.3203738986914</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H26">
-        <v>15.3203738986914</v>
+        <v>47.390323</v>
       </c>
       <c r="I26">
-        <v>0.02050895536254447</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J26">
-        <v>0.02050895536254447</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K26">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
       <c r="M26">
-        <v>10.9047798046547</v>
+        <v>3.152962</v>
       </c>
       <c r="N26">
-        <v>10.9047798046547</v>
+        <v>6.305924000000001</v>
       </c>
       <c r="O26">
-        <v>0.4618831187869663</v>
+        <v>0.1238725014308239</v>
       </c>
       <c r="P26">
-        <v>0.4618831187869663</v>
+        <v>0.1012255502275323</v>
       </c>
       <c r="Q26">
-        <v>167.065303890209</v>
+        <v>49.80662919557534</v>
       </c>
       <c r="R26">
-        <v>167.065303890209</v>
+        <v>298.839775173452</v>
       </c>
       <c r="S26">
-        <v>0.009472740265914714</v>
+        <v>0.002198826716804696</v>
       </c>
       <c r="T26">
-        <v>0.009472740265914714</v>
+        <v>0.001855800845335151</v>
       </c>
     </row>
     <row r="27" spans="1:20">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27" t="s">
         <v>26</v>
@@ -2084,60 +2084,60 @@
         <v>27</v>
       </c>
       <c r="D27" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F27">
         <v>1</v>
       </c>
       <c r="G27">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H27">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I27">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J27">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K27">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27">
-        <v>2.96454710372563</v>
+        <v>8.746778000000001</v>
       </c>
       <c r="N27">
-        <v>2.96454710372563</v>
+        <v>26.240334</v>
       </c>
       <c r="O27">
-        <v>0.1255664292712438</v>
+        <v>0.3436404467672299</v>
       </c>
       <c r="P27">
-        <v>0.1255664292712438</v>
+        <v>0.4212217348804431</v>
       </c>
       <c r="Q27">
-        <v>153.7194378477815</v>
+        <v>138.1708782097647</v>
       </c>
       <c r="R27">
-        <v>153.7194378477815</v>
+        <v>1243.537903887882</v>
       </c>
       <c r="S27">
-        <v>0.008716018674418445</v>
+        <v>0.006099867093976883</v>
       </c>
       <c r="T27">
-        <v>0.008716018674418445</v>
+        <v>0.007722394690940882</v>
       </c>
     </row>
     <row r="28" spans="1:20">
       <c r="A28" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B28" t="s">
         <v>26</v>
@@ -2146,60 +2146,60 @@
         <v>27</v>
       </c>
       <c r="D28" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E28">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F28">
         <v>1</v>
       </c>
       <c r="G28">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H28">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I28">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J28">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K28">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L28">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M28">
-        <v>8.32523025636085</v>
+        <v>1.188721</v>
       </c>
       <c r="N28">
-        <v>8.32523025636085</v>
+        <v>3.566163</v>
       </c>
       <c r="O28">
-        <v>0.3526236553429724</v>
+        <v>0.04670206738087879</v>
       </c>
       <c r="P28">
-        <v>0.3526236553429724</v>
+        <v>0.05724566485039578</v>
       </c>
       <c r="Q28">
-        <v>431.6847296347</v>
+        <v>18.77795738229433</v>
       </c>
       <c r="R28">
-        <v>431.6847296347</v>
+        <v>169.001616440649</v>
       </c>
       <c r="S28">
-        <v>0.02447687955171393</v>
+        <v>0.000828995558343803</v>
       </c>
       <c r="T28">
-        <v>0.02447687955171393</v>
+        <v>0.001049503341620187</v>
       </c>
     </row>
     <row r="29" spans="1:20">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B29" t="s">
         <v>26</v>
@@ -2211,57 +2211,57 @@
         <v>23</v>
       </c>
       <c r="E29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29">
         <v>1</v>
       </c>
       <c r="G29">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H29">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I29">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J29">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K29">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29">
-        <v>0.69796761232365</v>
+        <v>0.700844</v>
       </c>
       <c r="N29">
-        <v>0.69796761232365</v>
+        <v>2.102532</v>
       </c>
       <c r="O29">
-        <v>0.02956313317346694</v>
+        <v>0.02753452131449231</v>
       </c>
       <c r="P29">
-        <v>0.02956313317346694</v>
+        <v>0.03375079664312381</v>
       </c>
       <c r="Q29">
-        <v>36.19142663225485</v>
+        <v>11.07107451087067</v>
       </c>
       <c r="R29">
-        <v>36.19142663225485</v>
+        <v>99.639670597836</v>
       </c>
       <c r="S29">
-        <v>0.002052083684387029</v>
+        <v>0.0004887577178260536</v>
       </c>
       <c r="T29">
-        <v>0.002052083684387029</v>
+        <v>0.0006187643020981865</v>
       </c>
     </row>
     <row r="30" spans="1:20">
       <c r="A30" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B30" t="s">
         <v>26</v>
@@ -2273,57 +2273,57 @@
         <v>24</v>
       </c>
       <c r="E30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F30">
         <v>1</v>
       </c>
       <c r="G30">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H30">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I30">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J30">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K30">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30">
-        <v>0.716867645186256</v>
+        <v>0.7528623333333334</v>
       </c>
       <c r="N30">
-        <v>0.716867645186256</v>
+        <v>2.258587</v>
       </c>
       <c r="O30">
-        <v>0.03036366342535065</v>
+        <v>0.02957819994755621</v>
       </c>
       <c r="P30">
-        <v>0.03036366342535065</v>
+        <v>0.03625586223553463</v>
       </c>
       <c r="Q30">
-        <v>37.17144223844753</v>
+        <v>11.89279638373345</v>
       </c>
       <c r="R30">
-        <v>37.17144223844753</v>
+        <v>107.035167453601</v>
       </c>
       <c r="S30">
-        <v>0.002107651376049129</v>
+        <v>0.0005250344953758578</v>
       </c>
       <c r="T30">
-        <v>0.002107651376049129</v>
+        <v>0.0006646904821344155</v>
       </c>
     </row>
     <row r="31" spans="1:20">
       <c r="A31" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B31" t="s">
         <v>26</v>
@@ -2335,52 +2335,424 @@
         <v>25</v>
       </c>
       <c r="E31">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F31">
         <v>1</v>
       </c>
       <c r="G31">
-        <v>51.8525874170115</v>
+        <v>15.79677433333333</v>
       </c>
       <c r="H31">
-        <v>51.8525874170115</v>
+        <v>47.390323</v>
       </c>
       <c r="I31">
-        <v>0.06941360620831573</v>
+        <v>0.01775072507139627</v>
       </c>
       <c r="J31">
-        <v>0.06941360620831573</v>
+        <v>0.01833332435500452</v>
       </c>
       <c r="K31">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31">
-        <v>10.9047798046547</v>
+        <v>10.911117</v>
       </c>
       <c r="N31">
-        <v>10.9047798046547</v>
+        <v>21.822234</v>
       </c>
       <c r="O31">
-        <v>0.4618831187869663</v>
+        <v>0.4286722631590189</v>
       </c>
       <c r="P31">
-        <v>0.4618831187869663</v>
+        <v>0.3503003911629703</v>
       </c>
       <c r="Q31">
-        <v>565.4410480841194</v>
+        <v>172.360452973597</v>
       </c>
       <c r="R31">
-        <v>565.4410480841194</v>
+        <v>1034.162717841582</v>
       </c>
       <c r="S31">
-        <v>0.03206097292174719</v>
+        <v>0.007609243489068976</v>
       </c>
       <c r="T31">
-        <v>0.03206097292174719</v>
+        <v>0.006422170692875693</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>53.1948375</v>
+      </c>
+      <c r="H32">
+        <v>106.389675</v>
+      </c>
+      <c r="I32">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J32">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>3.152962</v>
+      </c>
+      <c r="N32">
+        <v>6.305924000000001</v>
+      </c>
+      <c r="O32">
+        <v>0.1238725014308239</v>
+      </c>
+      <c r="P32">
+        <v>0.1012255502275323</v>
+      </c>
+      <c r="Q32">
+        <v>167.721301233675</v>
+      </c>
+      <c r="R32">
+        <v>670.8852049347</v>
+      </c>
+      <c r="S32">
+        <v>0.007404437603711899</v>
+      </c>
+      <c r="T32">
+        <v>0.004166210236632739</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>53.1948375</v>
+      </c>
+      <c r="H33">
+        <v>106.389675</v>
+      </c>
+      <c r="I33">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J33">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>8.746778000000001</v>
+      </c>
+      <c r="N33">
+        <v>26.240334</v>
+      </c>
+      <c r="O33">
+        <v>0.3436404467672299</v>
+      </c>
+      <c r="P33">
+        <v>0.4212217348804431</v>
+      </c>
+      <c r="Q33">
+        <v>465.2834343585751</v>
+      </c>
+      <c r="R33">
+        <v>2791.70060615145</v>
+      </c>
+      <c r="S33">
+        <v>0.02054099349580488</v>
+      </c>
+      <c r="T33">
+        <v>0.01733651533438432</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>53.1948375</v>
+      </c>
+      <c r="H34">
+        <v>106.389675</v>
+      </c>
+      <c r="I34">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J34">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K34">
+        <v>2</v>
+      </c>
+      <c r="L34">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M34">
+        <v>1.188721</v>
+      </c>
+      <c r="N34">
+        <v>3.566163</v>
+      </c>
+      <c r="O34">
+        <v>0.04670206738087879</v>
+      </c>
+      <c r="P34">
+        <v>0.05724566485039578</v>
+      </c>
+      <c r="Q34">
+        <v>63.23382042783749</v>
+      </c>
+      <c r="R34">
+        <v>379.402922567025</v>
+      </c>
+      <c r="S34">
+        <v>0.002791600556150696</v>
+      </c>
+      <c r="T34">
+        <v>0.002356099565440516</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>53.1948375</v>
+      </c>
+      <c r="H35">
+        <v>106.389675</v>
+      </c>
+      <c r="I35">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J35">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K35">
+        <v>3</v>
+      </c>
+      <c r="L35">
+        <v>1</v>
+      </c>
+      <c r="M35">
+        <v>0.700844</v>
+      </c>
+      <c r="N35">
+        <v>2.102532</v>
+      </c>
+      <c r="O35">
+        <v>0.02753452131449231</v>
+      </c>
+      <c r="P35">
+        <v>0.03375079664312381</v>
+      </c>
+      <c r="Q35">
+        <v>37.28128269285</v>
+      </c>
+      <c r="R35">
+        <v>223.6876961571</v>
+      </c>
+      <c r="S35">
+        <v>0.001645866860411214</v>
+      </c>
+      <c r="T35">
+        <v>0.001389104965624055</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>53.1948375</v>
+      </c>
+      <c r="H36">
+        <v>106.389675</v>
+      </c>
+      <c r="I36">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J36">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>0.7528623333333334</v>
+      </c>
+      <c r="N36">
+        <v>2.258587</v>
+      </c>
+      <c r="O36">
+        <v>0.02957819994755621</v>
+      </c>
+      <c r="P36">
+        <v>0.03625586223553463</v>
+      </c>
+      <c r="Q36">
+        <v>40.04838948153751</v>
+      </c>
+      <c r="R36">
+        <v>240.290336889225</v>
+      </c>
+      <c r="S36">
+        <v>0.001768027071481234</v>
+      </c>
+      <c r="T36">
+        <v>0.001492207689107199</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>53.1948375</v>
+      </c>
+      <c r="H37">
+        <v>106.389675</v>
+      </c>
+      <c r="I37">
+        <v>0.05977466764766092</v>
+      </c>
+      <c r="J37">
+        <v>0.0411576941520005</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>10.911117</v>
+      </c>
+      <c r="N37">
+        <v>21.822234</v>
+      </c>
+      <c r="O37">
+        <v>0.4286722631590189</v>
+      </c>
+      <c r="P37">
+        <v>0.3503003911629703</v>
+      </c>
+      <c r="Q37">
+        <v>580.4150957584875</v>
+      </c>
+      <c r="R37">
+        <v>2321.66038303395</v>
+      </c>
+      <c r="S37">
+        <v>0.025623742060101</v>
+      </c>
+      <c r="T37">
+        <v>0.01441755636081167</v>
       </c>
     </row>
   </sheetData>
